--- a/AccesTravel_test_cases.xlsx
+++ b/AccesTravel_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yulia\GIT\AccessTravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C449712A-AE25-49D5-A7C0-3F94E09FB183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4D399E-D6AF-4E30-9C38-F9278746E850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29535" yWindow="0" windowWidth="15375" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chrome browser testing " sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="385">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -745,9 +745,6 @@
   </si>
   <si>
     <t xml:space="preserve">User needs to login before adding a review. </t>
-  </si>
-  <si>
-    <t>Hosting</t>
   </si>
   <si>
     <t>Maintenance and Support</t>
@@ -1320,27 +1317,10 @@
     <t>TC099</t>
   </si>
   <si>
-    <t>TC100</t>
-  </si>
-  <si>
     <t>TC101</t>
   </si>
   <si>
     <t>TC102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postman is running </t>
-  </si>
-  <si>
-    <t>Choose GET method
-Copy and paste the URL
-Click send</t>
-  </si>
-  <si>
-    <t>Could not get response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">html file of the webpage. </t>
   </si>
   <si>
     <t>Open destination and check-in/checkout boxes</t>
@@ -1818,11 +1798,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -1954,7 +1934,7 @@
         <v>149</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>150</v>
@@ -1981,7 +1961,7 @@
         <v>149</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>151</v>
@@ -1994,7 +1974,7 @@
     </row>
     <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>186</v>
@@ -2006,7 +1986,7 @@
         <v>147</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>152</v>
@@ -2083,7 +2063,7 @@
     </row>
     <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>162</v>
@@ -2104,19 +2084,19 @@
     </row>
     <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="3">
         <v>1.2</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>165</v>
@@ -2127,7 +2107,7 @@
     </row>
     <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
@@ -2139,10 +2119,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -2151,10 +2131,10 @@
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C17" s="3">
         <v>1.3</v>
@@ -2189,13 +2169,13 @@
         <v>166</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
@@ -2203,7 +2183,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C19" s="3">
         <v>1.3</v>
@@ -2238,7 +2218,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>10</v>
@@ -2249,7 +2229,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C21" s="3">
         <v>1.3</v>
@@ -2258,10 +2238,10 @@
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>167</v>
@@ -2281,10 +2261,10 @@
         <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>167</v>
@@ -2310,7 +2290,7 @@
         <v>169</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>167</v>
@@ -2330,13 +2310,13 @@
         <v>1.3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>10</v>
@@ -2354,13 +2334,13 @@
         <v>1.3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>10</v>
@@ -2371,13 +2351,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C26" s="3">
         <v>1.3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>77</v>
@@ -2394,16 +2374,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="3">
         <v>1.3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>176</v>
@@ -2420,16 +2400,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C28" s="3">
         <v>1.3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>176</v>
@@ -2438,7 +2418,7 @@
         <v>177</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="57" x14ac:dyDescent="0.25">
@@ -2446,19 +2426,19 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C29" s="3">
         <v>1.3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -2469,19 +2449,19 @@
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C30" s="3">
         <v>1.3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>10</v>
@@ -2498,7 +2478,7 @@
         <v>1.3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>79</v>
@@ -2521,7 +2501,7 @@
         <v>1.3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>74</v>
@@ -2538,13 +2518,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C33" s="3">
         <v>1.3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>73</v>
@@ -2561,13 +2541,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" s="3">
         <v>1.3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>72</v>
@@ -2584,13 +2564,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C35" s="3">
         <v>1.3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>92</v>
@@ -2607,13 +2587,13 @@
         <v>103</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C36" s="3">
         <v>1.3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>170</v>
@@ -2630,13 +2610,13 @@
         <v>104</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C37" s="3">
         <v>1.3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>71</v>
@@ -2653,19 +2633,19 @@
         <v>105</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" s="3">
         <v>1.3</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>171</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>10</v>
@@ -2683,10 +2663,10 @@
         <v>1.4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>83</v>
@@ -2706,7 +2686,7 @@
         <v>1.4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>85</v>
@@ -2729,7 +2709,7 @@
         <v>1.4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>86</v>
@@ -2741,7 +2721,7 @@
         <v>39</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
@@ -2755,13 +2735,13 @@
         <v>1.4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>39</v>
@@ -2781,13 +2761,13 @@
         <v>1.4</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>10</v>
@@ -2804,7 +2784,7 @@
         <v>1.4</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>88</v>
@@ -2827,13 +2807,13 @@
         <v>1.4</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>10</v>
@@ -2851,7 +2831,7 @@
         <v>1.4</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>94</v>
@@ -2874,7 +2854,7 @@
         <v>1.4</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>95</v>
@@ -2897,10 +2877,10 @@
         <v>1.4</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>129</v>
@@ -2909,7 +2889,7 @@
         <v>39</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
@@ -2923,13 +2903,13 @@
         <v>1.4</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>10</v>
@@ -2937,7 +2917,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>180</v>
@@ -2993,10 +2973,10 @@
         <v>1.4</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>130</v>
@@ -3019,7 +2999,7 @@
         <v>1.4</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>82</v>
@@ -3031,7 +3011,7 @@
         <v>10</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
@@ -3045,13 +3025,13 @@
         <v>1.4</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>10</v>
@@ -3069,13 +3049,13 @@
         <v>1.4</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
@@ -3092,13 +3072,13 @@
         <v>1.4</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>10</v>
@@ -3115,19 +3095,19 @@
         <v>1.4</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
@@ -3141,19 +3121,19 @@
         <v>1.4</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
@@ -3167,19 +3147,19 @@
         <v>1.4</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
@@ -3193,19 +3173,19 @@
         <v>1.4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
@@ -3219,13 +3199,13 @@
         <v>1.4</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>10</v>
@@ -3242,13 +3222,13 @@
         <v>1.4</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>10</v>
@@ -3272,7 +3252,7 @@
         <v>44</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>10</v>
@@ -3280,7 +3260,7 @@
     </row>
     <row r="68" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>43</v>
@@ -3292,7 +3272,7 @@
         <v>45</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>46</v>
@@ -3303,7 +3283,7 @@
     </row>
     <row r="69" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>43</v>
@@ -3318,7 +3298,7 @@
         <v>49</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>14</v>
@@ -3338,7 +3318,7 @@
         <v>47</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>48</v>
@@ -3362,10 +3342,10 @@
         <v>38</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -3385,10 +3365,10 @@
         <v>38</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>10</v>
@@ -3408,16 +3388,16 @@
         <v>38</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="57" x14ac:dyDescent="0.25">
@@ -3431,19 +3411,19 @@
         <v>3.3</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
@@ -3457,7 +3437,7 @@
         <v>3.4</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>136</v>
@@ -3481,28 +3461,28 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>192</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C80" s="3">
         <v>5.0999999999999996</v>
@@ -3511,7 +3491,7 @@
         <v>141</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>140</v>
@@ -3522,19 +3502,19 @@
     </row>
     <row r="81" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C81" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>140</v>
@@ -3545,10 +3525,10 @@
     </row>
     <row r="82" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C82" s="3">
         <v>5.2</v>
@@ -3557,7 +3537,7 @@
         <v>141</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>193</v>
@@ -3568,19 +3548,19 @@
     </row>
     <row r="83" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C83" s="3">
         <v>5.2</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>193</v>
@@ -3591,7 +3571,7 @@
     </row>
     <row r="84" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>139</v>
@@ -3600,13 +3580,13 @@
         <v>5.3</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>189</v>
@@ -3616,7 +3596,7 @@
     <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>142</v>
@@ -3628,10 +3608,10 @@
         <v>182</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>189</v>
@@ -3641,7 +3621,7 @@
     <row r="87" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>143</v>
@@ -3653,21 +3633,21 @@
         <v>190</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>143</v>
@@ -3679,21 +3659,21 @@
         <v>190</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>143</v>
@@ -3705,21 +3685,21 @@
         <v>190</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>143</v>
@@ -3731,22 +3711,22 @@
         <v>190</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>144</v>
@@ -3755,13 +3735,13 @@
         <v>8.1</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>192</v>
@@ -3771,10 +3751,10 @@
     <row r="94" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C95" s="3">
         <v>9.1</v>
@@ -3783,7 +3763,7 @@
         <v>141</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>145</v>
@@ -3794,10 +3774,10 @@
     </row>
     <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C96" s="3">
         <v>9.1999999999999993</v>
@@ -3806,10 +3786,10 @@
         <v>141</v>
       </c>
       <c r="E96" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>10</v>
@@ -3817,10 +3797,10 @@
     </row>
     <row r="97" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C97" s="3">
         <v>9.3000000000000007</v>
@@ -3829,36 +3809,36 @@
         <v>141</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C98" s="3">
         <v>9.4</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>10</v>
@@ -3866,16 +3846,16 @@
     </row>
     <row r="99" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C99" s="3">
         <v>9.5</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>195</v>
@@ -3889,16 +3869,16 @@
     </row>
     <row r="100" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C100" s="3">
         <v>9.6</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>197</v>
@@ -3912,16 +3892,16 @@
     </row>
     <row r="101" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C101" s="3">
         <v>9.6999999999999993</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>199</v>
@@ -3935,22 +3915,22 @@
     </row>
     <row r="102" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C102" s="3">
         <v>9.8000000000000007</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>201</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>10</v>
@@ -3958,16 +3938,16 @@
     </row>
     <row r="103" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C103" s="3">
         <v>9.9</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>202</v>
@@ -3981,16 +3961,16 @@
     </row>
     <row r="104" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C104" s="3">
         <v>9.1</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>204</v>
@@ -4004,16 +3984,16 @@
     </row>
     <row r="105" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C105" s="3">
         <v>9.11</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>206</v>
@@ -4025,15 +4005,15 @@
         <v>177</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C106" s="3">
         <v>9.1199999999999992</v>
@@ -4057,10 +4037,10 @@
     <row r="107" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C108" s="3">
         <v>10.1</v>
@@ -4069,7 +4049,7 @@
         <v>215</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>216</v>
@@ -4083,10 +4063,10 @@
     </row>
     <row r="109" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C109" s="3">
         <v>10.199999999999999</v>
@@ -4095,7 +4075,7 @@
         <v>210</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>214</v>
@@ -4106,10 +4086,10 @@
     </row>
     <row r="110" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C110" s="3">
         <v>10.3</v>
@@ -4118,7 +4098,7 @@
         <v>211</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>214</v>
@@ -4129,19 +4109,19 @@
     </row>
     <row r="111" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C111" s="3">
         <v>10.4</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>214</v>
@@ -4152,10 +4132,10 @@
     </row>
     <row r="112" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C112" s="3">
         <v>10.5</v>
@@ -4164,7 +4144,7 @@
         <v>212</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>214</v>
@@ -4175,10 +4155,10 @@
     </row>
     <row r="113" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C113" s="3">
         <v>10.6</v>
@@ -4187,7 +4167,7 @@
         <v>213</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>214</v>
@@ -4199,7 +4179,7 @@
     <row r="114" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>218</v>
@@ -4208,10 +4188,10 @@
         <v>11.1</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>221</v>
@@ -4222,7 +4202,7 @@
     </row>
     <row r="116" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>218</v>
@@ -4243,7 +4223,7 @@
     </row>
     <row r="117" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>218</v>
@@ -4267,80 +4247,53 @@
     <row r="118" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="E118" s="10"/>
     </row>
-    <row r="119" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B120" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C119" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C121" s="3">
+      <c r="C120" s="3">
         <v>13.1</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="D120" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C122" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E122" s="3" t="s">
+      <c r="F120" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G120" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
